--- a/kyivbot/resources/invincibility.xlsx
+++ b/kyivbot/resources/invincibility.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\5_sem\nlp_works\kyivbot\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1084E023-FE23-4AC9-93CB-AE99758DB521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52ADF739-02B3-4DFE-86AA-4B317ED875EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,42 +20,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Пункт незламності (ДСНС) - пр-т. Голосіївський, 56 (метро Голосіївська/Деміївська);</t>
-  </si>
-  <si>
-    <t>Пункт незламності (ДСНС) - Солом’янська площа, вул. Василя Липківського, 33;</t>
-  </si>
-  <si>
-    <t>Пункт незламності (ДСНС) - вул. Рибальська, 14/16;</t>
-  </si>
-  <si>
-    <t>Пункт незламності (ДСНС) - пр-т. Перемоги, 69/1 (метро Нивки);</t>
-  </si>
-  <si>
-    <t>Пункт незламності (ДСНС) - вул. Світлицького, 37 (Виноградар);</t>
-  </si>
-  <si>
-    <t>Пункт незламності (ДСНС) - бульвар Перова, 27 (Троєщина);</t>
-  </si>
-  <si>
-    <t>Пункт незламності (ДСНС) - вул. Героїв полку Азов, 6 (метро Оболонь);</t>
-  </si>
-  <si>
-    <t>Пункт незламності (ДСНС) - вул. Кубанської України, 4А (Лісовий масив);</t>
-  </si>
-  <si>
-    <t>Пункт незламності (ДСНС) - вул. Олександра Кошиця, 3В (метро Харківська)</t>
-  </si>
-  <si>
-    <t>Пункт незламності (ДСНС) - None</t>
-  </si>
-  <si>
-    <t>Пункт незламності (ДСНС) - вул. Молдавська 3А, (метро Лук’янівка, поруч із Центральним госпіталем МВС України);</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Пункт незламності (ДСНС)</t>
+  </si>
+  <si>
+    <t>Пункт незламності (ДСНС) - вул. Молдавська 3А, (метро Лук’янівка, поруч із Центральним госпіталем МВС України)</t>
+  </si>
+  <si>
+    <t>Пункт незламності (ДСНС) - пр-т. Голосіївський, 56 (метро Голосіївська/Деміївська)</t>
+  </si>
+  <si>
+    <t>Пункт незламності (ДСНС) - Солом’янська площа, вул. Василя Липківського, 33</t>
+  </si>
+  <si>
+    <t>Пункт незламності (ДСНС) - вул. Рибальська, 14/16</t>
+  </si>
+  <si>
+    <t>Пункт незламності (ДСНС) - пр-т. Перемоги, 69/1 (метро Нивки)</t>
+  </si>
+  <si>
+    <t>Пункт незламності (ДСНС) - вул. Світлицького, 37 (Виноградар)</t>
+  </si>
+  <si>
+    <t>Пункт незламності (ДСНС) - бульвар Перова, 27 (Троєщина)</t>
+  </si>
+  <si>
+    <t>Пункт незламності (ДСНС) - вул. Героїв полку Азов, 6 (метро Оболонь)</t>
+  </si>
+  <si>
+    <t>Пункт незламності (ДСНС) - вул. Кубанської України, 4А (Лісовий масив)</t>
+  </si>
+  <si>
+    <t>Пункт незламності (ДСНС) - вул. Олександра Кошиця, 3В</t>
   </si>
 </sst>
 </file>
@@ -382,75 +379,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="74.7109375" customWidth="1"/>
+    <col min="1" max="1" width="88.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
